--- a/biology/Zoologie/Chevêchette/Chevêchette.xlsx
+++ b/biology/Zoologie/Chevêchette/Chevêchette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chev%C3%AAchette</t>
+          <t>Chevêchette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chevêchette un nom vernaculaire désignant des petites chouettes ou chevêches, des rapaces qui font tous partie de la famille des Strigidés. Ce terme a été repris par la suite pour former le nom normalisé de plusieurs espèces d'oiseaux, réparties dans trois genres : Glaucidium, Micrathene et Xenoglaux. Ainsi l'espèce Glaucidium passerinum, traditionnellement nommée chouette chevêchette en français, a désormais pour nom normalisé Chevêchette d'Europe. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chev%C3%AAchette</t>
+          <t>Chevêchette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste des noms normalisés d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 2.2, 2009) du Congrès ornithologique international et le CINFO (ordre alphabétique) :
 Chevêchette à collier – Glaucidium brodiei
@@ -544,28 +558,62 @@
 Chevêchette naine – Glaucidium gnoma
 Chevêchette nimbée – Xenoglaux loweryi
 Chevêchette perlée – Glaucidium perlatum
-Chevêchette spadicée – Glaucidium castanopterum
-Noms divers
-Liste alphabétique de noms vernaculaires ou de noms vulgaires, non retenus par la CINFO, dont l’usage est attesté[1]. Plusieurs noms désignent donc parfois la même espèce.
-Chevêchette barrée - voir Chevêchette cuculoïde[2] et Chevêchette du Cap[2]
-Chevêchette cingalaise - voir Chevêchette à dos marron[2]
-Chevêchette d'Albertine - voir Chevêchette du Graben[2]
-Chevêchette d'Amérique du Nord - voir Chevêchette des Rocheuses[2]
-Chevêchette d'Équateur - voir Chevêchette des nuages[2]
-Chevêchette de Californie - voir Chevêchette des Rocheuses[2]
-Chevêchette de Java - voir Chevêchette spadicée[2]
-Chevêchette de Patagonie - voir Chevêchette australe[2]
-Chevêchette de Pernambuco - voir Chevêchette des Moore[2]
-Chevêchette de Prigogine - voir Chevêchette du Graben[2]
-Chevêchette de Sri Lanka - voir Chevêchette à dos marron[2]
-Chevêchette de l'Amazone - voir Chevêchette d'Amazonie[2]
-Chevêchette de la forêt pluviale - voir Chevêchette des nuages[2]
-Chevêchette des montagnes - voir Chevêchette naine[2]
-Chevêchette elfe - voir Chevêchette des saguaros[2]
-Chevêchette siju - voir Chevêchette de Cuba[2]
-Chevêchette subtropicale - voir Chevêchette de Parker[2]
-Chevêchette à poitrine barrée - voir Chevêchette du Cap[2]
-Chouette chevêchette - voir Chevêchette d'Europe[3]</t>
+Chevêchette spadicée – Glaucidium castanopterum</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chevêchette</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chev%C3%AAchette</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des noms normalisés d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms divers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste alphabétique de noms vernaculaires ou de noms vulgaires, non retenus par la CINFO, dont l’usage est attesté. Plusieurs noms désignent donc parfois la même espèce.
+Chevêchette barrée - voir Chevêchette cuculoïde et Chevêchette du Cap
+Chevêchette cingalaise - voir Chevêchette à dos marron
+Chevêchette d'Albertine - voir Chevêchette du Graben
+Chevêchette d'Amérique du Nord - voir Chevêchette des Rocheuses
+Chevêchette d'Équateur - voir Chevêchette des nuages
+Chevêchette de Californie - voir Chevêchette des Rocheuses
+Chevêchette de Java - voir Chevêchette spadicée
+Chevêchette de Patagonie - voir Chevêchette australe
+Chevêchette de Pernambuco - voir Chevêchette des Moore
+Chevêchette de Prigogine - voir Chevêchette du Graben
+Chevêchette de Sri Lanka - voir Chevêchette à dos marron
+Chevêchette de l'Amazone - voir Chevêchette d'Amazonie
+Chevêchette de la forêt pluviale - voir Chevêchette des nuages
+Chevêchette des montagnes - voir Chevêchette naine
+Chevêchette elfe - voir Chevêchette des saguaros
+Chevêchette siju - voir Chevêchette de Cuba
+Chevêchette subtropicale - voir Chevêchette de Parker
+Chevêchette à poitrine barrée - voir Chevêchette du Cap
+Chouette chevêchette - voir Chevêchette d'Europe</t>
         </is>
       </c>
     </row>
